--- a/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_semana-12_V2.12.xlsx
+++ b/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_semana-12_V2.12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial Versiones" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1307,6 +1307,7 @@
     <xf numFmtId="7" fontId="2" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="2" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="24" fillId="13" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,6 +1397,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2103,12 +2105,12 @@
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2133,12 +2135,12 @@
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2388,11 +2390,11 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="57"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2446,9 +2448,9 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2962,14 +2964,14 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2992,12 +2994,12 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="82"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="83"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3020,12 +3022,12 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3048,12 +3050,12 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -30055,19 +30057,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="95"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -30078,17 +30080,17 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -30099,23 +30101,23 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="111" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="97"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -30126,9 +30128,9 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -30166,10 +30168,10 @@
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="22" t="s">
         <v>75</v>
       </c>
@@ -30207,8 +30209,8 @@
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="22" t="s">
         <v>75</v>
       </c>
@@ -30246,8 +30248,8 @@
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="22" t="s">
         <v>25</v>
       </c>
@@ -30273,8 +30275,8 @@
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="22" t="s">
         <v>25</v>
       </c>
@@ -30300,8 +30302,8 @@
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
@@ -30327,8 +30329,8 @@
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
@@ -30354,8 +30356,8 @@
       <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
@@ -30381,8 +30383,8 @@
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="22" t="s">
         <v>25</v>
       </c>
@@ -30408,8 +30410,8 @@
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
@@ -30435,8 +30437,8 @@
       <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
@@ -30454,8 +30456,8 @@
       <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="22" t="s">
         <v>25</v>
       </c>
@@ -30473,8 +30475,8 @@
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="22" t="s">
         <v>25</v>
       </c>
@@ -30492,8 +30494,8 @@
       <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
@@ -30511,8 +30513,8 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="22" t="s">
         <v>25</v>
       </c>
@@ -30530,8 +30532,8 @@
       <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="22" t="s">
         <v>25</v>
       </c>
@@ -30549,8 +30551,8 @@
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
@@ -30568,8 +30570,8 @@
       <c r="A21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="22" t="s">
         <v>25</v>
       </c>
@@ -30587,8 +30589,8 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="22" t="s">
         <v>25</v>
       </c>
@@ -30606,8 +30608,8 @@
       <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
@@ -31600,11 +31602,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:B2"/>
@@ -31619,11 +31621,11 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
@@ -31680,53 +31682,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="95"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="113" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -33139,37 +33141,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="12" width="11.5703125" customWidth="1"/>
+    <col min="3" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -33738,8 +33742,105 @@
         <v>845</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C20" s="121">
+        <f>C18-C19</f>
+        <v>10044</v>
+      </c>
+      <c r="D20" s="121">
+        <f t="shared" ref="D20:O20" si="3">D18-D19</f>
+        <v>-1327</v>
+      </c>
+      <c r="E20" s="121">
+        <f t="shared" si="3"/>
+        <v>1077</v>
+      </c>
+      <c r="F20" s="121">
+        <f t="shared" si="3"/>
+        <v>1755</v>
+      </c>
+      <c r="G20" s="121">
+        <f t="shared" si="3"/>
+        <v>6885</v>
+      </c>
+      <c r="H20" s="121">
+        <f t="shared" si="3"/>
+        <v>6825</v>
+      </c>
+      <c r="I20" s="121">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="J20" s="121">
+        <f t="shared" si="3"/>
+        <v>2544</v>
+      </c>
+      <c r="K20" s="121">
+        <f t="shared" si="3"/>
+        <v>-7206</v>
+      </c>
+      <c r="L20" s="121">
+        <f t="shared" si="3"/>
+        <v>-13257</v>
+      </c>
+      <c r="M20" s="121">
+        <f t="shared" si="3"/>
+        <v>-2121</v>
+      </c>
+      <c r="N20" s="121">
+        <f t="shared" si="3"/>
+        <v>-4800</v>
+      </c>
+      <c r="O20" s="121"/>
+    </row>
     <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="H26" s="77">
+        <v>12000</v>
+      </c>
+      <c r="I26" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>6.52</v>
+      </c>
+      <c r="F27">
+        <f>((E27*F26)/E26)</f>
+        <v>16.3</v>
+      </c>
+      <c r="H27" s="77">
+        <v>1956</v>
+      </c>
+      <c r="I27" s="77">
+        <f>((H27*I26)/H26)</f>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>1.07</v>
+      </c>
+      <c r="G30">
+        <f>(E30-F30)</f>
+        <v>98.93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:O1"/>

--- a/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_semana-12_V2.12.xlsx
+++ b/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_semana-12_V2.12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial Versiones" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Costos" sheetId="4" r:id="rId4"/>
     <sheet name="Parametros" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1308,6 +1308,7 @@
     <xf numFmtId="7" fontId="2" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="24" fillId="13" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1397,7 +1398,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2105,12 +2105,12 @@
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2135,12 +2135,12 @@
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2390,11 +2390,11 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="57"/>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2448,9 +2448,9 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2964,14 +2964,14 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2994,12 +2994,12 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3022,12 +3022,12 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3050,12 +3050,12 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -30057,19 +30057,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="99" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="96"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -30080,17 +30080,17 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -30101,23 +30101,23 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="112" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="98"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -30128,9 +30128,9 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -30168,10 +30168,10 @@
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="105"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="22" t="s">
         <v>75</v>
       </c>
@@ -30209,8 +30209,8 @@
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="22" t="s">
         <v>75</v>
       </c>
@@ -30248,8 +30248,8 @@
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="22" t="s">
         <v>25</v>
       </c>
@@ -30275,8 +30275,8 @@
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="22" t="s">
         <v>25</v>
       </c>
@@ -30302,8 +30302,8 @@
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
@@ -30329,8 +30329,8 @@
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
@@ -30356,8 +30356,8 @@
       <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
@@ -30383,8 +30383,8 @@
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="22" t="s">
         <v>25</v>
       </c>
@@ -30410,8 +30410,8 @@
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
@@ -30437,8 +30437,8 @@
       <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
@@ -30456,8 +30456,8 @@
       <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="22" t="s">
         <v>25</v>
       </c>
@@ -30475,8 +30475,8 @@
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="22" t="s">
         <v>25</v>
       </c>
@@ -30494,8 +30494,8 @@
       <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
@@ -30513,8 +30513,8 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="22" t="s">
         <v>25</v>
       </c>
@@ -30532,8 +30532,8 @@
       <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="22" t="s">
         <v>25</v>
       </c>
@@ -30551,8 +30551,8 @@
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
@@ -30570,8 +30570,8 @@
       <c r="A21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="22" t="s">
         <v>25</v>
       </c>
@@ -30589,8 +30589,8 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="22" t="s">
         <v>25</v>
       </c>
@@ -30608,8 +30608,8 @@
       <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
@@ -31682,53 +31682,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="99" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="96"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="114" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -33141,10 +33141,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33158,22 +33158,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -33743,55 +33743,55 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C20" s="121">
+      <c r="C20" s="78">
         <f>C18-C19</f>
         <v>10044</v>
       </c>
-      <c r="D20" s="121">
-        <f t="shared" ref="D20:O20" si="3">D18-D19</f>
+      <c r="D20" s="78">
+        <f t="shared" ref="D20:N20" si="3">D18-D19</f>
         <v>-1327</v>
       </c>
-      <c r="E20" s="121">
+      <c r="E20" s="78">
         <f t="shared" si="3"/>
         <v>1077</v>
       </c>
-      <c r="F20" s="121">
+      <c r="F20" s="78">
         <f t="shared" si="3"/>
         <v>1755</v>
       </c>
-      <c r="G20" s="121">
+      <c r="G20" s="78">
         <f t="shared" si="3"/>
         <v>6885</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="78">
         <f t="shared" si="3"/>
         <v>6825</v>
       </c>
-      <c r="I20" s="121">
+      <c r="I20" s="78">
         <f t="shared" si="3"/>
         <v>426</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="78">
         <f t="shared" si="3"/>
         <v>2544</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="78">
         <f t="shared" si="3"/>
         <v>-7206</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L20" s="78">
         <f t="shared" si="3"/>
         <v>-13257</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="78">
         <f t="shared" si="3"/>
         <v>-2121</v>
       </c>
-      <c r="N20" s="121">
+      <c r="N20" s="78">
         <f t="shared" si="3"/>
         <v>-4800</v>
       </c>
-      <c r="O20" s="121"/>
+      <c r="O20" s="78"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33800,46 +33800,12 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26">
-        <v>40</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="H26" s="77">
-        <v>12000</v>
-      </c>
-      <c r="I26" s="77">
-        <v>100</v>
-      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27">
-        <v>6.52</v>
-      </c>
-      <c r="F27">
-        <f>((E27*F26)/E26)</f>
-        <v>16.3</v>
-      </c>
-      <c r="H27" s="77">
-        <v>1956</v>
-      </c>
-      <c r="I27" s="77">
-        <f>((H27*I26)/H26)</f>
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <v>1.07</v>
-      </c>
-      <c r="G30">
-        <f>(E30-F30)</f>
-        <v>98.93</v>
-      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_semana-12_V2.12.xlsx
+++ b/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_semana-12_V2.12.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Costos" sheetId="4" r:id="rId4"/>
     <sheet name="Parametros" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
   <si>
     <t>PLAN DE ADQUISICION Y CAPACITACIÓN</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>residuo total</t>
+  </si>
+  <si>
+    <t>variacion</t>
   </si>
 </sst>
 </file>
@@ -33143,8 +33146,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33415,9 +33418,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="70"/>
-      <c r="D9" s="71">
-        <v>10000</v>
-      </c>
+      <c r="D9" s="71"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
@@ -33431,7 +33432,7 @@
       <c r="O9" s="65"/>
       <c r="P9" s="66">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -33440,9 +33441,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="72"/>
-      <c r="D10" s="71">
-        <v>8150</v>
-      </c>
+      <c r="D10" s="71"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
@@ -33456,7 +33455,7 @@
       <c r="O10" s="65"/>
       <c r="P10" s="66">
         <f t="shared" si="0"/>
-        <v>8150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -33628,7 +33627,7 @@
       </c>
       <c r="D18" s="73">
         <f>SUM(D4,D9, D12, D15)</f>
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="E18" s="73">
         <f t="shared" ref="E18:N18" si="1">SUM(E4,, F8, E12, E15)</f>
@@ -33673,7 +33672,7 @@
       <c r="O18" s="74"/>
       <c r="P18" s="73">
         <f>SUM(C18:N18)</f>
-        <v>118000</v>
+        <v>108000</v>
       </c>
       <c r="Q18" t="s">
         <v>107</v>
@@ -33690,7 +33689,7 @@
       </c>
       <c r="D19" s="75">
         <f t="shared" ref="D19:N19" si="2">SUM(D5,D10,D13,D16)</f>
-        <v>23327</v>
+        <v>15177</v>
       </c>
       <c r="E19" s="75">
         <f t="shared" si="2"/>
@@ -33735,21 +33734,24 @@
       <c r="O19" s="75"/>
       <c r="P19" s="76">
         <f>SUM(C19:N19)</f>
-        <v>117155</v>
+        <v>109005</v>
       </c>
       <c r="Q19">
         <f>(P18-P19)</f>
-        <v>845</v>
+        <v>-1005</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
       <c r="C20" s="78">
         <f>C18-C19</f>
         <v>10044</v>
       </c>
       <c r="D20" s="78">
         <f t="shared" ref="D20:N20" si="3">D18-D19</f>
-        <v>-1327</v>
+        <v>-3177</v>
       </c>
       <c r="E20" s="78">
         <f t="shared" si="3"/>
@@ -33794,11 +33796,6 @@
       <c r="O20" s="78"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>20</v>
-      </c>
-    </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="77"/>
       <c r="I26" s="77"/>
